--- a/data_quarter/zb/建筑业/建筑业企业利润.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业利润.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,36 @@
           <t>建筑业企业营业利润_累计值</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业产值利润率</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业其他业务利润</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业利润总额</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业工程结算利润</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业营业利润</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,11 +506,26 @@
       <c r="F2" t="n">
         <v>78.81</v>
       </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="J2" t="n">
+        <v>505.56</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,55 +543,100 @@
       <c r="F3" t="n">
         <v>35.62</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>238.26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35.62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C4" t="n">
-        <v>49.39</v>
+        <v>28.37</v>
       </c>
       <c r="D4" t="n">
-        <v>230.77</v>
+        <v>121.34</v>
       </c>
       <c r="E4" t="n">
-        <v>1020.96</v>
+        <v>605.96</v>
       </c>
       <c r="F4" t="n">
-        <v>242.92</v>
+        <v>127.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="I4" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C5" t="n">
-        <v>28.37</v>
+        <v>49.39</v>
       </c>
       <c r="D5" t="n">
-        <v>121.34</v>
+        <v>230.77</v>
       </c>
       <c r="E5" t="n">
-        <v>605.96</v>
+        <v>1020.96</v>
       </c>
       <c r="F5" t="n">
-        <v>127.22</v>
+        <v>242.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="I5" t="n">
+        <v>109.43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="n">
+        <v>115.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -569,55 +654,100 @@
       <c r="F6" t="n">
         <v>46.6</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="I6" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="J6" t="n">
+        <v>275.23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="C7" t="n">
-        <v>56.31</v>
+        <v>34.5</v>
       </c>
       <c r="D7" t="n">
-        <v>312.96</v>
+        <v>152.18</v>
       </c>
       <c r="E7" t="n">
-        <v>1200.39</v>
+        <v>710.71</v>
       </c>
       <c r="F7" t="n">
-        <v>311.79</v>
+        <v>152.96</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="I7" t="n">
+        <v>109.41</v>
+      </c>
+      <c r="J7" t="n">
+        <v>435.48</v>
+      </c>
+      <c r="K7" t="n">
+        <v>106.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="C8" t="n">
-        <v>34.5</v>
+        <v>56.31</v>
       </c>
       <c r="D8" t="n">
-        <v>152.18</v>
+        <v>312.96</v>
       </c>
       <c r="E8" t="n">
-        <v>710.71</v>
+        <v>1200.39</v>
       </c>
       <c r="F8" t="n">
-        <v>152.96</v>
+        <v>311.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="I8" t="n">
+        <v>160.78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>489.6800000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>158.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -635,55 +765,100 @@
       <c r="F9" t="n">
         <v>64.86</v>
       </c>
+      <c r="G9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>344.46</v>
+      </c>
+      <c r="K9" t="n">
+        <v>64.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="C10" t="n">
-        <v>65.87</v>
+        <v>41.45</v>
       </c>
       <c r="D10" t="n">
-        <v>455.5</v>
+        <v>233.77</v>
       </c>
       <c r="E10" t="n">
-        <v>1496.28</v>
+        <v>891.98</v>
       </c>
       <c r="F10" t="n">
-        <v>457.57</v>
+        <v>240.37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4100000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="I10" t="n">
+        <v>169.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>547.52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>175.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="C11" t="n">
-        <v>41.45</v>
+        <v>65.87</v>
       </c>
       <c r="D11" t="n">
-        <v>233.77</v>
+        <v>455.5</v>
       </c>
       <c r="E11" t="n">
-        <v>891.98</v>
+        <v>1496.28</v>
       </c>
       <c r="F11" t="n">
-        <v>240.37</v>
+        <v>457.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>221.73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>604.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>217.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,55 +876,100 @@
       <c r="F12" t="n">
         <v>115.03115</v>
       </c>
+      <c r="G12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17.20296</v>
+      </c>
+      <c r="I12" t="n">
+        <v>102.59979</v>
+      </c>
+      <c r="J12" t="n">
+        <v>428.88289</v>
+      </c>
+      <c r="K12" t="n">
+        <v>115.03115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="C13" t="n">
-        <v>80.23438</v>
+        <v>46.28</v>
       </c>
       <c r="D13" t="n">
-        <v>658.33286</v>
+        <v>344.54</v>
       </c>
       <c r="E13" t="n">
-        <v>1852.88048</v>
+        <v>1091.29</v>
       </c>
       <c r="F13" t="n">
-        <v>661.47509</v>
+        <v>345.59</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>29.07704</v>
+      </c>
+      <c r="I13" t="n">
+        <v>241.94021</v>
+      </c>
+      <c r="J13" t="n">
+        <v>662.40711</v>
+      </c>
+      <c r="K13" t="n">
+        <v>230.55885</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="C14" t="n">
-        <v>46.28</v>
+        <v>80.23438</v>
       </c>
       <c r="D14" t="n">
-        <v>344.54</v>
+        <v>658.33286</v>
       </c>
       <c r="E14" t="n">
-        <v>1091.29</v>
+        <v>1852.88048</v>
       </c>
       <c r="F14" t="n">
-        <v>345.59</v>
+        <v>661.47509</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>33.95438</v>
+      </c>
+      <c r="I14" t="n">
+        <v>313.79286</v>
+      </c>
+      <c r="J14" t="n">
+        <v>761.5904800000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>315.88509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -765,55 +985,98 @@
       <c r="F15" t="n">
         <v>169.26</v>
       </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>163.45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>542.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>169.26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="C16" t="n">
-        <v>101.07</v>
+        <v>61.21</v>
       </c>
       <c r="D16" t="n">
-        <v>834.59</v>
+        <v>489.94</v>
       </c>
       <c r="E16" t="n">
-        <v>2231.29</v>
+        <v>1378.76</v>
       </c>
       <c r="F16" t="n">
-        <v>843.8200000000001</v>
+        <v>488.99</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="I16" t="n">
+        <v>326.49</v>
+      </c>
+      <c r="J16" t="n">
+        <v>836.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>319.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="C17" t="n">
-        <v>61.21</v>
+        <v>101.07</v>
       </c>
       <c r="D17" t="n">
-        <v>489.94</v>
+        <v>834.59</v>
       </c>
       <c r="E17" t="n">
-        <v>1378.76</v>
+        <v>2231.29</v>
       </c>
       <c r="F17" t="n">
-        <v>488.99</v>
+        <v>843.8200000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="H17" t="n">
+        <v>39.85999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>344.65</v>
+      </c>
+      <c r="J17" t="n">
+        <v>852.53</v>
+      </c>
+      <c r="K17" t="n">
+        <v>354.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -831,55 +1094,100 @@
       <c r="F18" t="n">
         <v>231.94</v>
       </c>
+      <c r="G18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="I18" t="n">
+        <v>223.93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>660.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>231.94</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C19" t="n">
-        <v>102.3</v>
+        <v>68.5</v>
       </c>
       <c r="D19" t="n">
-        <v>1206.4</v>
+        <v>686.2</v>
       </c>
       <c r="E19" t="n">
-        <v>2777.8</v>
+        <v>1667.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1232.2</v>
+        <v>703.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>42.61</v>
+      </c>
+      <c r="I19" t="n">
+        <v>462.27</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>471.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C20" t="n">
-        <v>68.5</v>
+        <v>102.3</v>
       </c>
       <c r="D20" t="n">
-        <v>686.2</v>
+        <v>1206.4</v>
       </c>
       <c r="E20" t="n">
-        <v>1667.1</v>
+        <v>2777.8</v>
       </c>
       <c r="F20" t="n">
-        <v>703.1</v>
+        <v>1232.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>520.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1110.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>529.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -897,55 +1205,100 @@
       <c r="F21" t="n">
         <v>325.4</v>
       </c>
+      <c r="G21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>837.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>325.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C22" t="n">
-        <v>129.72</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>1585.3</v>
+        <v>916.2</v>
       </c>
       <c r="E22" t="n">
-        <v>3517.3</v>
+        <v>2074.6</v>
       </c>
       <c r="F22" t="n">
-        <v>1669.96</v>
+        <v>934.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50.90000000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>608.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1236.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>609.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="C23" t="n">
-        <v>81.40000000000001</v>
+        <v>129.72</v>
       </c>
       <c r="D23" t="n">
-        <v>916.2</v>
+        <v>1585.3</v>
       </c>
       <c r="E23" t="n">
-        <v>2074.6</v>
+        <v>3517.3</v>
       </c>
       <c r="F23" t="n">
-        <v>934.8</v>
+        <v>1669.96</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="H23" t="n">
+        <v>48.31999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>669.0999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1442.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>735.1600000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -963,55 +1316,100 @@
       <c r="F24" t="n">
         <v>423.27</v>
       </c>
+      <c r="G24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="I24" t="n">
+        <v>413.22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1040.37</v>
+      </c>
+      <c r="K24" t="n">
+        <v>423.27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2.7</v>
       </c>
       <c r="C25" t="n">
-        <v>150.47</v>
+        <v>106.23</v>
       </c>
       <c r="D25" t="n">
-        <v>1951.05</v>
+        <v>1155.4</v>
       </c>
       <c r="E25" t="n">
-        <v>4385.3</v>
+        <v>2639.35</v>
       </c>
       <c r="F25" t="n">
-        <v>2092.15</v>
+        <v>1213.59</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>66.97</v>
+      </c>
+      <c r="I25" t="n">
+        <v>742.1800000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1598.98</v>
+      </c>
+      <c r="K25" t="n">
+        <v>790.3199999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2.7</v>
       </c>
       <c r="C26" t="n">
-        <v>106.23</v>
+        <v>150.47</v>
       </c>
       <c r="D26" t="n">
-        <v>1155.4</v>
+        <v>1951.05</v>
       </c>
       <c r="E26" t="n">
-        <v>2639.35</v>
+        <v>4385.3</v>
       </c>
       <c r="F26" t="n">
-        <v>1213.59</v>
+        <v>2092.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>44.23999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>795.6499999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1745.95</v>
+      </c>
+      <c r="K26" t="n">
+        <v>878.5600000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1025,11 +1423,22 @@
       <c r="F27" t="n">
         <v>595.96</v>
       </c>
+      <c r="G27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>505.92</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>595.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1037,17 +1446,28 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>2388.78</v>
+        <v>1397.17</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2687.18</v>
+        <v>1537.82</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>891.25</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>941.8599999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1055,17 +1475,28 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>1397.17</v>
+        <v>2388.78</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>1537.82</v>
+        <v>2687.18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>991.6100000000001</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1149.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1079,11 +1510,22 @@
       <c r="F30" t="n">
         <v>701.3</v>
       </c>
+      <c r="G30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>628.05</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>701.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1091,17 +1533,28 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>2878.05</v>
+        <v>1663.02</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>3199.02</v>
+        <v>1795.94</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1034.97</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1094.64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1109,17 +1562,28 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>1663.02</v>
+        <v>2878.05</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>1795.94</v>
+        <v>3199.02</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1215.03</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1403.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1133,47 +1597,80 @@
       <c r="F33" t="n">
         <v>812.84</v>
       </c>
+      <c r="G33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>737.0700000000001</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>812.84</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>3300.57</v>
+        <v>1970.66</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>3514.43</v>
+        <v>2094.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1233.59</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1281.76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>1970.66</v>
+        <v>3300.57</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>2094.6</v>
+        <v>3514.43</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1329.91</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1419.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1187,11 +1684,22 @@
       <c r="F36" t="n">
         <v>895.8099999999999</v>
       </c>
+      <c r="G36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>826.74</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>895.8099999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1199,17 +1707,28 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>3366.31</v>
+        <v>2093.88</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>3562.99</v>
+        <v>2205.55</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1267.14</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1309.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1217,17 +1736,28 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>2093.88</v>
+        <v>3366.31</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>2205.55</v>
+        <v>3562.99</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1272.43</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1357.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1241,11 +1771,22 @@
       <c r="F39" t="n">
         <v>942.3200000000001</v>
       </c>
+      <c r="G39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>866.54</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>942.3200000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1259,11 +1800,22 @@
       <c r="F40" t="n">
         <v>3837.21</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>2726.99</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2894.89</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1275,6 +1827,17 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
+        <v>1055.61</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>975.75</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
         <v>1055.61</v>
       </c>
     </row>

--- a/data_quarter/zb/建筑业/建筑业企业利润.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,6 @@
           <t>建筑业企业营业利润_累计值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业产值利润率</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业其他业务利润</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业利润总额</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业工程结算利润</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业营业利润</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -506,21 +481,6 @@
       <c r="F2" t="n">
         <v>78.81</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>76.47</v>
-      </c>
-      <c r="J2" t="n">
-        <v>505.56</v>
-      </c>
-      <c r="K2" t="n">
-        <v>78.81</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,94 +503,49 @@
       <c r="F3" t="n">
         <v>35.62</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="I3" t="n">
-        <v>35.17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>238.26</v>
-      </c>
-      <c r="K3" t="n">
-        <v>35.62</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C4" t="n">
-        <v>28.37</v>
+        <v>49.39</v>
       </c>
       <c r="D4" t="n">
-        <v>121.34</v>
+        <v>230.77</v>
       </c>
       <c r="E4" t="n">
-        <v>605.96</v>
+        <v>1020.96</v>
       </c>
       <c r="F4" t="n">
-        <v>127.22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2899999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>367.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>91.59999999999999</v>
+        <v>242.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C5" t="n">
-        <v>49.39</v>
+        <v>28.37</v>
       </c>
       <c r="D5" t="n">
-        <v>230.77</v>
+        <v>121.34</v>
       </c>
       <c r="E5" t="n">
-        <v>1020.96</v>
+        <v>605.96</v>
       </c>
       <c r="F5" t="n">
-        <v>242.92</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="I5" t="n">
-        <v>109.43</v>
-      </c>
-      <c r="J5" t="n">
-        <v>415</v>
-      </c>
-      <c r="K5" t="n">
-        <v>115.7</v>
+        <v>127.22</v>
       </c>
     </row>
     <row r="6">
@@ -654,94 +569,49 @@
       <c r="F6" t="n">
         <v>46.6</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42.77</v>
-      </c>
-      <c r="J6" t="n">
-        <v>275.23</v>
-      </c>
-      <c r="K6" t="n">
-        <v>46.6</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="C7" t="n">
-        <v>34.5</v>
+        <v>56.31</v>
       </c>
       <c r="D7" t="n">
-        <v>152.18</v>
+        <v>312.96</v>
       </c>
       <c r="E7" t="n">
-        <v>710.71</v>
+        <v>1200.39</v>
       </c>
       <c r="F7" t="n">
-        <v>152.96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20.74</v>
-      </c>
-      <c r="I7" t="n">
-        <v>109.41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>435.48</v>
-      </c>
-      <c r="K7" t="n">
-        <v>106.36</v>
+        <v>311.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="C8" t="n">
-        <v>56.31</v>
+        <v>34.5</v>
       </c>
       <c r="D8" t="n">
-        <v>312.96</v>
+        <v>152.18</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.39</v>
+        <v>710.71</v>
       </c>
       <c r="F8" t="n">
-        <v>311.79</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="I8" t="n">
-        <v>160.78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>489.6800000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>158.83</v>
+        <v>152.96</v>
       </c>
     </row>
     <row r="9">
@@ -765,94 +635,49 @@
       <c r="F9" t="n">
         <v>64.86</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="I9" t="n">
-        <v>64.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>344.46</v>
-      </c>
-      <c r="K9" t="n">
-        <v>64.86</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="C10" t="n">
-        <v>41.45</v>
+        <v>65.87</v>
       </c>
       <c r="D10" t="n">
-        <v>233.77</v>
+        <v>455.5</v>
       </c>
       <c r="E10" t="n">
-        <v>891.98</v>
+        <v>1496.28</v>
       </c>
       <c r="F10" t="n">
-        <v>240.37</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4100000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>24.68</v>
-      </c>
-      <c r="I10" t="n">
-        <v>169.52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>547.52</v>
-      </c>
-      <c r="K10" t="n">
-        <v>175.51</v>
+        <v>457.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="C11" t="n">
-        <v>65.87</v>
+        <v>41.45</v>
       </c>
       <c r="D11" t="n">
-        <v>455.5</v>
+        <v>233.77</v>
       </c>
       <c r="E11" t="n">
-        <v>1496.28</v>
+        <v>891.98</v>
       </c>
       <c r="F11" t="n">
-        <v>457.57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H11" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="I11" t="n">
-        <v>221.73</v>
-      </c>
-      <c r="J11" t="n">
-        <v>604.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>217.2</v>
+        <v>240.37</v>
       </c>
     </row>
     <row r="12">
@@ -876,94 +701,49 @@
       <c r="F12" t="n">
         <v>115.03115</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17.20296</v>
-      </c>
-      <c r="I12" t="n">
-        <v>102.59979</v>
-      </c>
-      <c r="J12" t="n">
-        <v>428.88289</v>
-      </c>
-      <c r="K12" t="n">
-        <v>115.03115</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="C13" t="n">
-        <v>46.28</v>
+        <v>80.23438</v>
       </c>
       <c r="D13" t="n">
-        <v>344.54</v>
+        <v>658.33286</v>
       </c>
       <c r="E13" t="n">
-        <v>1091.29</v>
+        <v>1852.88048</v>
       </c>
       <c r="F13" t="n">
-        <v>345.59</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3599999999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>29.07704</v>
-      </c>
-      <c r="I13" t="n">
-        <v>241.94021</v>
-      </c>
-      <c r="J13" t="n">
-        <v>662.40711</v>
-      </c>
-      <c r="K13" t="n">
-        <v>230.55885</v>
+        <v>661.47509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="C14" t="n">
-        <v>80.23438</v>
+        <v>46.28</v>
       </c>
       <c r="D14" t="n">
-        <v>658.33286</v>
+        <v>344.54</v>
       </c>
       <c r="E14" t="n">
-        <v>1852.88048</v>
+        <v>1091.29</v>
       </c>
       <c r="F14" t="n">
-        <v>661.47509</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H14" t="n">
-        <v>33.95438</v>
-      </c>
-      <c r="I14" t="n">
-        <v>313.79286</v>
-      </c>
-      <c r="J14" t="n">
-        <v>761.5904800000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>315.88509</v>
+        <v>345.59</v>
       </c>
     </row>
     <row r="15">
@@ -985,92 +765,49 @@
       <c r="F15" t="n">
         <v>169.26</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>24.29</v>
-      </c>
-      <c r="I15" t="n">
-        <v>163.45</v>
-      </c>
-      <c r="J15" t="n">
-        <v>542.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>169.26</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="C16" t="n">
-        <v>61.21</v>
+        <v>101.07</v>
       </c>
       <c r="D16" t="n">
-        <v>489.94</v>
+        <v>834.59</v>
       </c>
       <c r="E16" t="n">
-        <v>1378.76</v>
+        <v>2231.29</v>
       </c>
       <c r="F16" t="n">
-        <v>488.99</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H16" t="n">
-        <v>36.92</v>
-      </c>
-      <c r="I16" t="n">
-        <v>326.49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>836.01</v>
-      </c>
-      <c r="K16" t="n">
-        <v>319.73</v>
+        <v>843.8200000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="C17" t="n">
-        <v>101.07</v>
+        <v>61.21</v>
       </c>
       <c r="D17" t="n">
-        <v>834.59</v>
+        <v>489.94</v>
       </c>
       <c r="E17" t="n">
-        <v>2231.29</v>
+        <v>1378.76</v>
       </c>
       <c r="F17" t="n">
-        <v>843.8200000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="H17" t="n">
-        <v>39.85999999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>344.65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>852.53</v>
-      </c>
-      <c r="K17" t="n">
-        <v>354.83</v>
+        <v>488.99</v>
       </c>
     </row>
     <row r="18">
@@ -1094,94 +831,49 @@
       <c r="F18" t="n">
         <v>231.94</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="I18" t="n">
-        <v>223.93</v>
-      </c>
-      <c r="J18" t="n">
-        <v>660.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>231.94</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C19" t="n">
-        <v>68.5</v>
+        <v>102.3</v>
       </c>
       <c r="D19" t="n">
-        <v>686.2</v>
+        <v>1206.4</v>
       </c>
       <c r="E19" t="n">
-        <v>1667.1</v>
+        <v>2777.8</v>
       </c>
       <c r="F19" t="n">
-        <v>703.1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>42.61</v>
-      </c>
-      <c r="I19" t="n">
-        <v>462.27</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1006.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>471.16</v>
+        <v>1232.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C20" t="n">
-        <v>102.3</v>
+        <v>68.5</v>
       </c>
       <c r="D20" t="n">
-        <v>1206.4</v>
+        <v>686.2</v>
       </c>
       <c r="E20" t="n">
-        <v>2777.8</v>
+        <v>1667.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1232.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>520.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1110.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>529.1</v>
+        <v>703.1</v>
       </c>
     </row>
     <row r="21">
@@ -1205,94 +897,49 @@
       <c r="F21" t="n">
         <v>325.4</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>308.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>837.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>325.4</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="C22" t="n">
-        <v>81.40000000000001</v>
+        <v>129.72</v>
       </c>
       <c r="D22" t="n">
-        <v>916.2</v>
+        <v>1585.3</v>
       </c>
       <c r="E22" t="n">
-        <v>2074.6</v>
+        <v>3517.3</v>
       </c>
       <c r="F22" t="n">
-        <v>934.8</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3000000000000003</v>
-      </c>
-      <c r="H22" t="n">
-        <v>50.90000000000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>608.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1236.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>609.4</v>
+        <v>1669.96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="C23" t="n">
-        <v>129.72</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.3</v>
+        <v>916.2</v>
       </c>
       <c r="E23" t="n">
-        <v>3517.3</v>
+        <v>2074.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1669.96</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="H23" t="n">
-        <v>48.31999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>669.0999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1442.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>735.1600000000001</v>
+        <v>934.8</v>
       </c>
     </row>
     <row r="24">
@@ -1316,94 +963,49 @@
       <c r="F24" t="n">
         <v>423.27</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="I24" t="n">
-        <v>413.22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1040.37</v>
-      </c>
-      <c r="K24" t="n">
-        <v>423.27</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2.7</v>
       </c>
       <c r="C25" t="n">
-        <v>106.23</v>
+        <v>150.47</v>
       </c>
       <c r="D25" t="n">
-        <v>1155.4</v>
+        <v>1951.05</v>
       </c>
       <c r="E25" t="n">
-        <v>2639.35</v>
+        <v>4385.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1213.59</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>66.97</v>
-      </c>
-      <c r="I25" t="n">
-        <v>742.1800000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1598.98</v>
-      </c>
-      <c r="K25" t="n">
-        <v>790.3199999999999</v>
+        <v>2092.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2.7</v>
       </c>
       <c r="C26" t="n">
-        <v>150.47</v>
+        <v>106.23</v>
       </c>
       <c r="D26" t="n">
-        <v>1951.05</v>
+        <v>1155.4</v>
       </c>
       <c r="E26" t="n">
-        <v>4385.3</v>
+        <v>2639.35</v>
       </c>
       <c r="F26" t="n">
-        <v>2092.15</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>44.23999999999999</v>
-      </c>
-      <c r="I26" t="n">
-        <v>795.6499999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1745.95</v>
-      </c>
-      <c r="K26" t="n">
-        <v>878.5600000000002</v>
+        <v>1213.59</v>
       </c>
     </row>
     <row r="27">
@@ -1423,22 +1025,11 @@
       <c r="F27" t="n">
         <v>595.96</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>505.92</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>595.96</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1446,28 +1037,17 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>1397.17</v>
+        <v>2388.78</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1537.82</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>891.25</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>941.8599999999999</v>
+        <v>2687.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1475,22 +1055,11 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>2388.78</v>
+        <v>1397.17</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>2687.18</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>991.6100000000001</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1149.36</v>
+        <v>1537.82</v>
       </c>
     </row>
     <row r="30">
@@ -1510,22 +1079,11 @@
       <c r="F30" t="n">
         <v>701.3</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>628.05</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>701.3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1533,28 +1091,17 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>1663.02</v>
+        <v>2878.05</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1795.94</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>1034.97</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1094.64</v>
+        <v>3199.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1562,22 +1109,11 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>2878.05</v>
+        <v>1663.02</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>3199.02</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>1215.03</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1403.08</v>
+        <v>1795.94</v>
       </c>
     </row>
     <row r="33">
@@ -1597,74 +1133,41 @@
       <c r="F33" t="n">
         <v>812.84</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>737.0700000000001</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>812.84</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>1970.66</v>
+        <v>3300.57</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>2094.6</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
-        <v>1233.59</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1281.76</v>
+        <v>3514.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>3300.57</v>
+        <v>1970.66</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>3514.43</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>1329.91</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1419.83</v>
+        <v>2094.6</v>
       </c>
     </row>
     <row r="36">
@@ -1684,22 +1187,11 @@
       <c r="F36" t="n">
         <v>895.8099999999999</v>
       </c>
-      <c r="G36" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>826.74</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>895.8099999999999</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1707,28 +1199,17 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>2093.88</v>
+        <v>3366.31</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>2205.55</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
-        <v>1267.14</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1309.74</v>
+        <v>3562.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1736,22 +1217,11 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>3366.31</v>
+        <v>2093.88</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>3562.99</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
-        <v>1272.43</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>1357.44</v>
+        <v>2205.55</v>
       </c>
     </row>
     <row r="39">
@@ -1771,17 +1241,6 @@
       <c r="F39" t="n">
         <v>942.3200000000001</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>866.54</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>942.3200000000001</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1800,17 +1259,6 @@
       <c r="F40" t="n">
         <v>3837.21</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>2726.99</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2894.89</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1827,17 +1275,6 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>1055.61</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
-        <v>975.75</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
         <v>1055.61</v>
       </c>
     </row>
